--- a/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
+++ b/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -51,19 +51,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004FF00"/>
-        <bgColor rgb="0004FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -91,21 +79,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -384,18 +438,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19.44140625"/>
-    <col customWidth="1" max="2" min="2" width="18.109375"/>
-    <col customWidth="1" max="3" min="3" width="31.33203125"/>
-    <col customWidth="1" max="5" min="5" width="14.88671875"/>
-    <col customWidth="1" max="6" min="6" width="8.77734375"/>
-    <col customWidth="1" max="8" min="8" width="14.77734375"/>
-    <col customWidth="1" max="9" min="9" width="26.77734375"/>
-    <col customWidth="1" max="10" min="10" width="14.88671875"/>
-    <col customWidth="1" max="11" min="11" width="13.21875"/>
+    <col width="19.44140625" customWidth="1" min="1" max="1"/>
+    <col width="18.109375" customWidth="1" min="2" max="2"/>
+    <col width="31.33203125" customWidth="1" min="3" max="3"/>
+    <col width="14.88671875" customWidth="1" min="5" max="5"/>
+    <col width="8.77734375" customWidth="1" min="6" max="6"/>
+    <col width="14.77734375" customWidth="1" min="8" max="8"/>
+    <col width="26.77734375" customWidth="1" min="9" max="9"/>
+    <col width="14.88671875" customWidth="1" min="10" max="10"/>
+    <col width="13.21875" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1">
+    <row r="1" ht="15.6" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>KATEGORİ</t>
@@ -460,40 +514,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50,0x100,0x2,0</t>
+          <t>VARxVARx6,0</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>35.64</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Mt</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Üretim Tamamlanmıştır</t>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -507,25 +561,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>VARxVARx6,0</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>32.66</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Mt</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -534,45 +588,45 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>32.66</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15,0x129,0x2,0</t>
+          <t>VARxVARx3,0</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>7.57</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>Mt</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -581,60 +635,60 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>112</v>
+        <v>7.57</v>
       </c>
       <c r="K4" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Block</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>129,0x81,0x2,0</t>
+          <t>VARxVARx22.5</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>Mt</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Üretim Tamamlanmıştır</t>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -643,30 +697,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Travertine Threads</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33,0x136,0x3,0</t>
+          <t>VARxVARx2,0</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>10.45</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>Mt</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -675,41 +729,41 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>10.45</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marble Treads</t>
+          <t>Travertine Stairs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32,0x129,0x3,0</t>
+          <t>VARxVARx3,0</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -717,46 +771,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Üretim Tamamlanmıştır</t>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>131,0x90,0x2,0</t>
+          <t>90,0x26,0x3,0</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -764,50 +818,50 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Üretim Tamamlanmıştır</t>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Travertine Treads</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32,0x130,0x2,0</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -816,537 +870,20 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>60.18</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="H10" t="n">
-        <v>160</v>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>Üretilmesi Gerekiyor</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="K10" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15,25x30,5x1,2</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1864</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pablo Vein Cut</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>35.16</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>Hiç Üretilmemiş</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>35.16</v>
-      </c>
-      <c r="K12" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="H13" t="n">
-        <v>156</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Agora Beige</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>119.08</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>119.08</v>
-      </c>
-      <c r="H14" t="n">
-        <v>640</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Marble Risers</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Crema Marfil</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15,0x129,0x3,0</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>27</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>27</v>
-      </c>
-      <c r="H15" t="n">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Marble Treads</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Crema Marfil</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>32,0x136,0x3,0</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>26</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Marble Risers</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Crema Marfil</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>15,0x136,0x3,0</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>27</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>27</v>
-      </c>
-      <c r="H17" t="n">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Travertine Treads</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>33,0x129,0x3,0</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>Hiç Üretilmemiş</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5,0x15,0x1,2</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="H19" t="n">
-        <v>270</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Marble Treads</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Agora Beige</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>32,0x100,0x1,2</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" t="n">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Üretim Tamamlanmıştır</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
+++ b/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
@@ -37,7 +37,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -48,6 +48,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004FF00"/>
+        <bgColor rgb="0004FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -81,12 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -509,45 +516,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Tundra Grey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VARxVARx6,0</t>
+          <t>50,0x50,0x2,0</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35.64</v>
+        <v>25</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Hiç Üretilmemiş</t>
+          <t>Üretim Tamamlanmıştır</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35.64</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -556,30 +563,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VARxVARx6,0</t>
+          <t>15,0x40,0x1,0</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.66</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -588,45 +595,45 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>32.66</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VARxVARx3,0</t>
+          <t>15,0x80,0x1,0</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.57</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -635,45 +642,45 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7.57</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Travertine Block</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VARxVARx22.5</t>
+          <t>15,0x110,0x1,0</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.6</v>
+        <v>41.25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -682,16 +689,16 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>41.25</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -702,25 +709,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VARxVARx2,0</t>
+          <t>15,0x80,0x1,2</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.45</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -729,41 +736,41 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10.45</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Travertine Stairs</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VARxVARx3,0</t>
+          <t>15,0x110,0x1,2</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -776,16 +783,16 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -796,25 +803,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90,0x26,0x3,0</t>
+          <t>31,3x100,0x1,2</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -823,63 +830,345 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Honed&amp;Half Bullnose</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>22,0x100,0x14,0</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8.039999999999999</v>
+        <v>7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Honed&amp;Bevelled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20,0x100,0x8,0</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>38</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Toros Black</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bush Hammered</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11,5x23,5x2,0</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brushed</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30,0x30,0x2,0</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>Hiç Üretilmemiş</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>195</v>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>150,0x150,0x2,0</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>261</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>261</v>
+      </c>
+      <c r="K13" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Marble Threads</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Polished&amp;Grooved&amp;Bevelled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33,0x125,0x2,0</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Marble Risers</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33,0x125,0x2,0</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
